--- a/MainTop/09.12.2024/печать_sorted.xlsx
+++ b/MainTop/09.12.2024/печать_sorted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="73">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г6</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
@@ -349,10 +367,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N26" activeCellId="0" sqref="N26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X32" activeCellId="0" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,10 +413,28 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>14</v>
@@ -407,7 +443,7 @@
         <v>0.36</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>39</v>
@@ -422,12 +458,34 @@
         <v>3</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">SUM(O2:T2)-H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>9</v>
@@ -436,7 +494,7 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>36</v>
@@ -451,12 +509,34 @@
         <v>3</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">SUM(O3:T3)-H3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>10</v>
@@ -465,7 +545,7 @@
         <v>0.25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>40</v>
@@ -480,12 +560,34 @@
         <v>3</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">SUM(O4:T4)-H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>13</v>
@@ -494,7 +596,7 @@
         <v>0.25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>52</v>
@@ -509,12 +611,34 @@
         <v>3</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">SUM(O5:T5)-H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>11</v>
@@ -523,7 +647,7 @@
         <v>0.21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>51</v>
@@ -538,12 +662,34 @@
         <v>3</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">SUM(O6:T6)-H6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>9</v>
@@ -552,7 +698,7 @@
         <v>0.21</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>42</v>
@@ -567,12 +713,34 @@
         <v>3</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">SUM(O7:T7)-H7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>16</v>
@@ -581,7 +749,7 @@
         <v>0.21</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>74</v>
@@ -596,12 +764,34 @@
         <v>2</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">SUM(O8:T8)-H8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>10</v>
@@ -610,7 +800,7 @@
         <v>0.14</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>70</v>
@@ -625,12 +815,34 @@
         <v>2</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">SUM(O9:T9)-H9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>7</v>
@@ -639,7 +851,7 @@
         <v>0.11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>65</v>
@@ -654,12 +866,34 @@
         <v>2</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">SUM(O10:T10)-H10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -668,7 +902,7 @@
         <v>0.11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>56</v>
@@ -683,12 +917,34 @@
         <v>2</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">SUM(O11:T11)-H11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8</v>
@@ -697,7 +953,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>74</v>
@@ -712,12 +968,34 @@
         <v>2</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">SUM(O12:T12)-H12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -726,7 +1004,7 @@
         <v>0.07</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>14</v>
@@ -741,12 +1019,34 @@
         <v>2</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">SUM(O13:T13)-H13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
@@ -755,7 +1055,7 @@
         <v>0.04</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>84</v>
@@ -770,12 +1070,34 @@
         <v>2</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">SUM(O14:T14)-H14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>4</v>
@@ -784,7 +1106,7 @@
         <v>0.04</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>112</v>
@@ -799,12 +1121,34 @@
         <v>2</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">SUM(O15:T15)-H15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -813,7 +1157,7 @@
         <v>0.1</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
@@ -828,12 +1172,28 @@
         <v>1</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">SUM(O16:T16)-H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7</v>
@@ -842,7 +1202,7 @@
         <v>0.07</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>98</v>
@@ -857,12 +1217,28 @@
         <v>1</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">SUM(O17:T17)-H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>7</v>
@@ -871,7 +1247,7 @@
         <v>0.07</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>98</v>
@@ -886,12 +1262,28 @@
         <v>1</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">SUM(O18:T18)-H18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>21</v>
@@ -900,7 +1292,7 @@
         <v>1.64</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>12</v>
@@ -915,12 +1307,34 @@
         <v>12</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <f aca="false">SUM(O19:T19)-H19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>9</v>
@@ -929,7 +1343,7 @@
         <v>0.46</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>19</v>
@@ -944,12 +1358,34 @@
         <v>6</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">SUM(O20:T20)-H20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>8</v>
@@ -958,7 +1394,7 @@
         <v>0.39</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>20</v>
@@ -973,12 +1409,34 @@
         <v>6</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">SUM(O21:T21)-H21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>23</v>
@@ -987,7 +1445,7 @@
         <v>0.57</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>40</v>
@@ -1002,12 +1460,34 @@
         <v>5</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <f aca="false">SUM(O22:T22)-H22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>7</v>
@@ -1016,7 +1496,7 @@
         <v>0.29</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>24</v>
@@ -1031,16 +1511,38 @@
         <v>5</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L23" s="0" t="n">
         <f aca="false">SUM(H2:H23)</f>
         <v>284</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">SUM(O23:T23)-H23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>7</v>
@@ -1049,7 +1551,7 @@
         <v>0.29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>24</v>
@@ -1066,13 +1568,35 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L24" s="2"/>
+      <c r="O24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">SUM(O24:T24)-H24</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>16</v>
@@ -1081,7 +1605,7 @@
         <v>0.29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>56</v>
@@ -1098,13 +1622,35 @@
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <f aca="false">SUM(O25:T25)-H25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>11</v>
@@ -1113,7 +1659,7 @@
         <v>0.29</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>38</v>
@@ -1130,13 +1676,35 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">SUM(O26:T26)-H26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>0</v>
@@ -1145,7 +1713,7 @@
         <v>0.24</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -1162,13 +1730,35 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">SUM(O27:T27)-H27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>5</v>
@@ -1177,7 +1767,7 @@
         <v>0.18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>28</v>
@@ -1194,13 +1784,35 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <f aca="false">SUM(O28:T28)-H28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>3</v>
@@ -1209,7 +1821,7 @@
         <v>0.18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>16</v>
@@ -1226,13 +1838,35 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <f aca="false">SUM(O29:T29)-H29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>27</v>
@@ -1241,7 +1875,7 @@
         <v>0.54</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>50</v>
@@ -1258,13 +1892,35 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <f aca="false">SUM(O30:T30)-H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>41</v>
@@ -1273,7 +1929,7 @@
         <v>0.46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>88</v>
@@ -1290,13 +1946,35 @@
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <f aca="false">SUM(O31:T31)-H31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1</v>
@@ -1305,7 +1983,7 @@
         <v>0.11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>9</v>
@@ -1322,13 +2000,35 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <f aca="false">SUM(O32:T32)-H32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>38</v>
@@ -1337,7 +2037,7 @@
         <v>0.36</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>106</v>
@@ -1354,13 +2054,35 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <f aca="false">SUM(O33:T33)-H33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>31</v>
@@ -1369,7 +2091,7 @@
         <v>0.29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>108</v>
@@ -1386,13 +2108,35 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <f aca="false">SUM(O34:T34)-H34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>9</v>
@@ -1401,7 +2145,7 @@
         <v>0.18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>50</v>
@@ -1418,13 +2162,35 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L35" s="2"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <f aca="false">SUM(O35:T35)-H35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>7</v>
@@ -1433,7 +2199,7 @@
         <v>0.18</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>39</v>
@@ -1450,13 +2216,35 @@
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L36" s="2"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <f aca="false">SUM(O36:T36)-H36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>16</v>
@@ -1465,7 +2253,7 @@
         <v>0.18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>89</v>
@@ -1482,13 +2270,35 @@
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L37" s="2"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <f aca="false">SUM(O37:T37)-H37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>5</v>
@@ -1497,7 +2307,7 @@
         <v>0.14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>35</v>
@@ -1514,13 +2324,35 @@
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L38" s="2"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <f aca="false">SUM(O38:T38)-H38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>7</v>
@@ -1529,7 +2361,7 @@
         <v>0.14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>49</v>
@@ -1546,13 +2378,35 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <f aca="false">SUM(O39:T39)-H39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>6</v>
@@ -1561,7 +2415,7 @@
         <v>0.14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>42</v>
@@ -1578,13 +2432,35 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <f aca="false">SUM(O40:T40)-H40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>9</v>
@@ -1593,7 +2469,7 @@
         <v>0.11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>84</v>
@@ -1610,13 +2486,35 @@
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <f aca="false">SUM(O41:T41)-H41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>9</v>
@@ -1625,7 +2523,7 @@
         <v>0.11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>84</v>
@@ -1642,13 +2540,35 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <f aca="false">SUM(O42:T42)-H42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>4</v>
@@ -1657,7 +2577,7 @@
         <v>0.07</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>56</v>
@@ -1674,13 +2594,35 @@
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <f aca="false">SUM(O43:T43)-H43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>4</v>
@@ -1689,7 +2631,7 @@
         <v>0.04</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>112</v>
@@ -1706,13 +2648,35 @@
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L44" s="2"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <f aca="false">SUM(O44:T44)-H44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>10</v>
@@ -1721,7 +2685,7 @@
         <v>0.11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>93</v>
@@ -1738,13 +2702,29 @@
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <f aca="false">SUM(O45:T45)-H45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>10</v>
@@ -1753,7 +2733,7 @@
         <v>0.11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>93</v>
@@ -1770,13 +2750,29 @@
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L46" s="2"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <f aca="false">SUM(O46:T46)-H46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>5</v>
@@ -1785,7 +2781,7 @@
         <v>0.11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>46</v>
@@ -1802,13 +2798,29 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <f aca="false">SUM(O47:T47)-H47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>5</v>
@@ -1817,7 +2829,7 @@
         <v>0.07</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>70</v>
@@ -1834,13 +2846,29 @@
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L48" s="2"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <f aca="false">SUM(O48:T48)-H48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>4</v>
@@ -1849,7 +2877,7 @@
         <v>0.07</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>56</v>
@@ -1866,13 +2894,29 @@
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L49" s="2"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <f aca="false">SUM(O49:T49)-H49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>6</v>
@@ -1881,7 +2925,7 @@
         <v>0.07</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>84</v>
@@ -1898,9 +2942,25 @@
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L50" s="2"/>
+      <c r="O50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <f aca="false">SUM(O50:T50)-H50</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/MainTop/09.12.2024/печать_sorted.xlsx
+++ b/MainTop/09.12.2024/печать_sorted.xlsx
@@ -369,8 +369,8 @@
   </sheetPr>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X32" activeCellId="0" sqref="X32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W10" activeCellId="0" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
